--- a/excelSheet/nhóm L2.xlsx
+++ b/excelSheet/nhóm L2.xlsx
@@ -491,12 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,7 +744,11 @@
 - SOP: Fix bug 15h</t>
         </is>
       </c>
-      <c r="Q4" s="7" t="n"/>
+      <c r="Q4" s="7" t="inlineStr">
+        <is>
+          <t>Bằng chứng</t>
+        </is>
+      </c>
       <c r="R4" s="7" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -955,7 +959,11 @@
 - SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
         </is>
       </c>
-      <c r="Q7" s="7" t="n"/>
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>Bằng chứng</t>
+        </is>
+      </c>
       <c r="R7" s="7" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1230,7 +1238,11 @@
 Báo cáo 1h/tuần</t>
         </is>
       </c>
-      <c r="Q12" s="7" t="n"/>
+      <c r="Q12" s="7" t="inlineStr">
+        <is>
+          <t>Thesp</t>
+        </is>
+      </c>
       <c r="R12" s="7" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1297,7 +1309,11 @@
 Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
-      <c r="Q13" s="7" t="n"/>
+      <c r="Q13" s="7" t="inlineStr">
+        <is>
+          <t>Thesp</t>
+        </is>
+      </c>
       <c r="R13" s="7" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -3339,326 +3355,6 @@
         <v/>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
-      <c r="C49" s="2" t="n"/>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="n"/>
-      <c r="R49" s="2" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
-      <c r="C50" s="2" t="n"/>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="inlineStr"/>
-      <c r="Q50" s="2" t="n"/>
-      <c r="R50" s="2" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
-      <c r="C51" s="2" t="n"/>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="inlineStr"/>
-      <c r="Q51" s="2" t="n"/>
-      <c r="R51" s="2" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
-      <c r="C52" s="2" t="n"/>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
-      <c r="G52" s="2" t="n"/>
-      <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="inlineStr"/>
-      <c r="Q52" s="2" t="n"/>
-      <c r="R52" s="2" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="n"/>
-      <c r="C53" s="2" t="n"/>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="2" t="n"/>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
-      <c r="P53" s="2" t="inlineStr"/>
-      <c r="Q53" s="2" t="n"/>
-      <c r="R53" s="2" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
-      <c r="H54" s="2" t="n"/>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
-      <c r="P54" s="2" t="inlineStr"/>
-      <c r="Q54" s="2" t="n"/>
-      <c r="R54" s="2" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
-      <c r="C55" s="2" t="n"/>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="inlineStr"/>
-      <c r="Q55" s="2" t="n"/>
-      <c r="R55" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="inlineStr"/>
-      <c r="Q56" s="2" t="n"/>
-      <c r="R56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
-      <c r="C57" s="2" t="n"/>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="inlineStr"/>
-      <c r="Q57" s="2" t="n"/>
-      <c r="R57" s="2" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
-      <c r="C58" s="2" t="n"/>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="inlineStr"/>
-      <c r="Q58" s="2" t="n"/>
-      <c r="R58" s="2" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
-      <c r="C59" s="2" t="n"/>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
-      <c r="H59" s="2" t="n"/>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
-      <c r="P59" s="2" t="inlineStr"/>
-      <c r="Q59" s="2" t="n"/>
-      <c r="R59" s="2" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
-      <c r="C60" s="2" t="n"/>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="inlineStr"/>
-      <c r="Q60" s="2" t="n"/>
-      <c r="R60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
-      <c r="C61" s="2" t="n"/>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="inlineStr"/>
-      <c r="Q61" s="2" t="n"/>
-      <c r="R61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
-      <c r="C62" s="2" t="n"/>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="inlineStr"/>
-      <c r="Q62" s="2" t="n"/>
-      <c r="R62" s="2" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
-      <c r="C63" s="2" t="n"/>
-      <c r="D63" s="2" t="n"/>
-      <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="n"/>
-      <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
-      <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="inlineStr"/>
-      <c r="Q63" s="2" t="n"/>
-      <c r="R63" s="2" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
-      <c r="C64" s="2" t="n"/>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="n"/>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr"/>
-      <c r="Q64" s="2" t="n"/>
-      <c r="R64" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:T1"/>
@@ -3676,22 +3372,10 @@
     <mergeCell ref="A23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P49"/>
-    <hyperlink ref="P50"/>
-    <hyperlink ref="P51"/>
-    <hyperlink ref="P52"/>
-    <hyperlink ref="P53"/>
-    <hyperlink ref="P54"/>
-    <hyperlink ref="P55"/>
-    <hyperlink ref="P56"/>
-    <hyperlink ref="P57"/>
-    <hyperlink ref="P58"/>
-    <hyperlink ref="P59"/>
-    <hyperlink ref="P60"/>
-    <hyperlink ref="P61"/>
-    <hyperlink ref="P62"/>
-    <hyperlink ref="P63"/>
-    <hyperlink ref="P64"/>
+    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="Q7" r:id="rId2"/>
+    <hyperlink ref="Q12" r:id="rId3"/>
+    <hyperlink ref="Q13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelSheet/nhóm L2.xlsx
+++ b/excelSheet/nhóm L2.xlsx
@@ -47,7 +47,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -62,20 +62,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="00CCE0FF"/>
+        <bgColor rgb="00CCE0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00365072"/>
-        <bgColor rgb="00365072"/>
+        <fgColor rgb="006699CC"/>
+        <bgColor rgb="006699CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4C639"/>
-        <bgColor rgb="00A4C639"/>
+        <fgColor rgb="009FC9E7"/>
+        <bgColor rgb="009FC9E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E57C"/>
+        <bgColor rgb="00B0E57C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+        <bgColor rgb="00008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,13 +128,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -584,42 +599,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -629,17 +644,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -649,12 +664,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -664,363 +679,363 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành áp dụng tool nhân sự với các chức năng quản lý và đánh giá chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>76</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="8" t="inlineStr">
+        <is>
+          <t>- Phát triển các tính năng 64h
+- Join họp meeting các bên (nếu có) 8h
+- Đánh giá sau khi hoàn thành các tính năng 4h</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 - UAT: critical/important issue &lt;= 1
 ** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N4" s="7" t="n">
+      <c r="L5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N5" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="O4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="7" t="inlineStr">
+      <c r="O5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t>- OnCX: Fix bug 30h
 - SOP: Fix bug 15h</t>
         </is>
       </c>
-      <c r="Q4" s="7" t="inlineStr">
+      <c r="Q5" s="8" t="inlineStr">
         <is>
           <t>Bằng chứng</t>
         </is>
       </c>
-      <c r="R4" s="7" t="inlineStr">
+      <c r="R5" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành áp dụng tool nhân sự với các chức năng quản lý và đánh giá chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="7" t="inlineStr">
-        <is>
-          <t>- Phát triển các tính năng 64h
-- Join họp meeting các bên (nếu có) 8h
-- Đánh giá sau khi hoàn thành các tính năng 4h</t>
-        </is>
-      </c>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="7" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="A6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O6" s="8" t="inlineStr"/>
-      <c r="P6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R6" s="7" t="n">
+      <c r="O6" s="9" t="inlineStr"/>
+      <c r="P6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R6" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án OnCX, SOP)</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
 - Có bằng chứng dev intergration test/ unittest ở mt dev
 - Tester test pass các US trên mt stg</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="7" t="n">
+      <c r="L7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N7" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P7" s="7" t="inlineStr">
+      <c r="O7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="8" t="inlineStr">
         <is>
           <t>- OnCX: làm tính năng (10.5h) + họp daily (11.5h) + retro/sprint planning (3h): 25h
 - SOP: làm tính năng (22.5h) + họp daily (11.5h) + retro/sprint planning (4h): 38h</t>
         </is>
       </c>
-      <c r="Q7" s="7" t="inlineStr">
+      <c r="Q7" s="8" t="inlineStr">
         <is>
           <t>Bằng chứng</t>
         </is>
       </c>
-      <c r="R7" s="7" t="inlineStr">
+      <c r="R7" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K8" s="8" t="n">
+      <c r="A8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="8" t="inlineStr"/>
-      <c r="P8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R8" s="7" t="n">
+      <c r="O8" s="9" t="inlineStr"/>
+      <c r="P8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R8" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1088,42 +1103,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1133,17 +1148,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1153,12 +1168,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1168,82 +1183,82 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng generativeAI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>Xây dựng và build MVP để giải quyết bài toán theo kế hoạch</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="7" t="n">
+      <c r="L12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="7" t="inlineStr">
+      <c r="O12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
         <is>
           <t>Phát triển 32h/tuần
 Báo cáo 1h/tuần</t>
         </is>
       </c>
-      <c r="Q12" s="7" t="inlineStr">
+      <c r="Q12" s="8" t="inlineStr">
         <is>
           <t>Thesp</t>
         </is>
       </c>
-      <c r="R12" s="7" t="inlineStr">
+      <c r="R12" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1251,252 +1266,252 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8 và công việc phát sinh được CBQL confirm</t>
         </is>
       </c>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="7" t="n">
+      <c r="L13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="O13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="7" t="inlineStr">
+      <c r="O13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
         <is>
           <t>Thời gian hỗ trợ trung bình 1h/ngày
 Review và làm báo cáo cáo 2h/tuần/bạn</t>
         </is>
       </c>
-      <c r="Q13" s="7" t="inlineStr">
+      <c r="Q13" s="8" t="inlineStr">
         <is>
           <t>Thesp</t>
         </is>
       </c>
-      <c r="R13" s="7" t="inlineStr">
+      <c r="R13" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K14" s="8" t="n">
+      <c r="A14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="8" t="inlineStr"/>
-      <c r="P14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R14" s="7" t="n">
+      <c r="O14" s="9" t="inlineStr"/>
+      <c r="P14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R14" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành lộ trình ứng dụng data science vào công việc tại SCC</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành lộ trình đào tạo core (nâng cao) và kế hoạch triển khai cho việc ứng dụng data science trong tháng</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành 100% các buổi đào tạo khóa Data Analytics Fundamental theo kế hoạch và bài toán ứng dụng trong tháng 8</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="7" t="n">
+      <c r="L15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="7" t="inlineStr">
+      <c r="O15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
         <is>
           <t>Triển khai lớp offline 2h/tuần
 Chuẩn bị minigame và bài giảng lớp offline 1h/tuần
 Làm báo cáo tiến độ và nhắc nhở lớp học 1h/tuần</t>
         </is>
       </c>
-      <c r="Q15" s="7" t="n"/>
-      <c r="R15" s="7" t="inlineStr">
+      <c r="Q15" s="8" t="n"/>
+      <c r="R15" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="8" t="n">
+      <c r="A16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="8" t="inlineStr"/>
-      <c r="P16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R16" s="7" t="n">
+      <c r="O16" s="9" t="inlineStr"/>
+      <c r="P16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R16" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1564,42 +1579,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1609,17 +1624,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1629,12 +1644,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1644,77 +1659,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="I20" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="J20" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N20" s="7" t="n">
+      <c r="L20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="O20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="7" t="inlineStr">
+      <c r="O20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="8" t="inlineStr">
         <is>
           <t>7h/ tháng</t>
         </is>
       </c>
-      <c r="Q20" s="7" t="n"/>
-      <c r="R20" s="7" t="inlineStr">
+      <c r="Q20" s="8" t="n"/>
+      <c r="R20" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1722,183 +1737,183 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo, Happy connect</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="7" t="n">
+      <c r="L21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N21" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="O21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="7" t="inlineStr">
+      <c r="O21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="8" t="inlineStr">
         <is>
           <t>Fix bug: 1h/ngày Dialo</t>
         </is>
       </c>
-      <c r="Q21" s="7" t="n"/>
-      <c r="R21" s="7" t="inlineStr">
+      <c r="Q21" s="8" t="n"/>
+      <c r="R21" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K22" s="8" t="n">
+      <c r="A22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K22" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O22" s="8" t="inlineStr"/>
-      <c r="P22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R22" s="7" t="n">
+      <c r="O22" s="9" t="inlineStr"/>
+      <c r="P22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R22" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Dialo,  Happy connect)</t>
         </is>
       </c>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N23" s="7" t="n">
+      <c r="L23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N23" s="8" t="n">
         <v>154</v>
       </c>
-      <c r="O23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P23" s="7" t="inlineStr">
+      <c r="O23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="8" t="inlineStr">
         <is>
           <t>- Code tính năng 3,5h/ngày
 - Review + Update Code dialo: 4h/ tuần
@@ -1908,64 +1923,64 @@
 - Báo cáo report, push anh em hoàn thành 1.75h/tuần"</t>
         </is>
       </c>
-      <c r="Q23" s="7" t="n"/>
-      <c r="R23" s="7" t="inlineStr">
+      <c r="Q23" s="8" t="n"/>
+      <c r="R23" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K24" s="8" t="n">
+      <c r="A24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K24" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N24" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="8" t="inlineStr"/>
-      <c r="P24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R24" s="7" t="n">
+      <c r="O24" s="9" t="inlineStr"/>
+      <c r="P24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R24" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -2033,42 +2048,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2078,17 +2093,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="L27" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="M27" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2098,12 +2113,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2113,71 +2128,71 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H28" s="7" t="inlineStr">
+      <c r="H28" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="I28" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr">
+      <c r="J28" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N28" s="7" t="n">
+      <c r="L28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N28" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="O28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P28" s="7" t="inlineStr">
+      <c r="O28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="8" t="inlineStr">
         <is>
           <t>- SOP: 
     + Fix bug: 18h
@@ -2187,8 +2202,8 @@
     + Meeting trao đổi: 4h</t>
         </is>
       </c>
-      <c r="Q28" s="7" t="n"/>
-      <c r="R28" s="7" t="inlineStr">
+      <c r="Q28" s="8" t="n"/>
+      <c r="R28" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2196,185 +2211,185 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>Áp dụng công nghệ nâng cao tốc độ và chất lượng sản phẩm</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành áp dụng tool nhân sự với các chức năng chuyên môn các nhân, chuyên môn nhân viên cho phòng RnD sử dụng trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="H29" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="K29" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N29" s="7" t="n">
+      <c r="L29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N29" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="O29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P29" s="7" t="inlineStr">
+      <c r="O29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="8" t="inlineStr">
         <is>
           <t>- Phát triển các tính năng 40h
 - Join họp meeting các bên (nếu có) 8h
 - Đánh giá sau khi hoàn thành các tính năng 4h</t>
         </is>
       </c>
-      <c r="Q29" s="7" t="n"/>
-      <c r="R29" s="7" t="inlineStr">
+      <c r="Q29" s="8" t="n"/>
+      <c r="R29" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K30" s="8" t="n">
+      <c r="A30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K30" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="N30" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O30" s="8" t="inlineStr"/>
-      <c r="P30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R30" s="7" t="n">
+      <c r="O30" s="9" t="inlineStr"/>
+      <c r="P30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R30" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP, OnCX)</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N31" s="7" t="n">
+      <c r="L31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N31" s="8" t="n">
         <v>88</v>
       </c>
-      <c r="O31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P31" s="7" t="inlineStr">
+      <c r="O31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="8" t="inlineStr">
         <is>
           <t>- OnCX: 
     + Làm tính năng: 24.5h
@@ -2386,64 +2401,64 @@
     + Retro/sprint planning: 4h"</t>
         </is>
       </c>
-      <c r="Q31" s="7" t="n"/>
-      <c r="R31" s="7" t="inlineStr">
+      <c r="Q31" s="8" t="n"/>
+      <c r="R31" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K32" s="8" t="n">
+      <c r="A32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K32" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="8" t="n">
+      <c r="N32" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O32" s="8" t="inlineStr"/>
-      <c r="P32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R32" s="7" t="n">
+      <c r="O32" s="9" t="inlineStr"/>
+      <c r="P32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R32" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -2511,42 +2526,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2556,17 +2571,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="K35" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="L35" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="M35" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2576,12 +2591,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O35" s="5" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P35" s="4" t="inlineStr">
+      <c r="P35" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2591,77 +2606,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
+      <c r="D36" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="inlineStr">
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H36" s="7" t="inlineStr">
+      <c r="H36" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="I36" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J36" s="7" t="inlineStr">
+      <c r="J36" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="K36" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L36" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N36" s="7" t="n">
+      <c r="L36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N36" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="O36" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P36" s="7" t="inlineStr">
+      <c r="O36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P36" s="8" t="inlineStr">
         <is>
           <t>23* 1,5h-2h fix bug meeting trao đổi với các đội liên quan (FE, tester, BA, PM)</t>
         </is>
       </c>
-      <c r="Q36" s="7" t="n"/>
-      <c r="R36" s="7" t="inlineStr">
+      <c r="Q36" s="8" t="n"/>
+      <c r="R36" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2669,245 +2684,245 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n"/>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="inlineStr">
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H37" s="7" t="inlineStr">
+      <c r="H37" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="I37" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J37" s="7" t="inlineStr">
+      <c r="J37" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K37" s="7" t="n">
+      <c r="K37" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L37" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M37" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N37" s="7" t="n">
+      <c r="L37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N37" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O37" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P37" s="7" t="inlineStr">
+      <c r="O37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P37" s="8" t="inlineStr">
         <is>
           <t>23* 0,5h-1h Mỗi ngày 0,5h -1h review</t>
         </is>
       </c>
-      <c r="Q37" s="7" t="n"/>
-      <c r="R37" s="7" t="inlineStr">
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K38" s="8" t="n">
+      <c r="A38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K38" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="8" t="n">
+      <c r="L38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M38" s="8" t="n">
+      <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="8" t="n">
+      <c r="N38" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O38" s="8" t="inlineStr"/>
-      <c r="P38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R38" s="7" t="n">
+      <c r="O38" s="9" t="inlineStr"/>
+      <c r="P38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R38" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
+      <c r="D39" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="inlineStr">
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H39" s="7" t="inlineStr">
+      <c r="H39" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="I39" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="J39" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K39" s="7" t="n">
+      <c r="K39" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L39" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M39" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N39" s="7" t="n">
+      <c r="L39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N39" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O39" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P39" s="7" t="inlineStr">
+      <c r="O39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P39" s="8" t="inlineStr">
         <is>
           <t>23*5,5h ( 4,5h mỗi ngày làm task, trao đổi với các đội liên quan , khoảng 30-45 phút daily/ meeting, 6h retro-planning 1 sprint)</t>
         </is>
       </c>
-      <c r="Q39" s="7" t="n"/>
-      <c r="R39" s="7" t="inlineStr">
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K40" s="8" t="n">
+      <c r="A40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K40" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="8" t="n">
+      <c r="L40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M40" s="8" t="n">
+      <c r="M40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N40" s="8" t="n">
+      <c r="N40" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="8" t="inlineStr"/>
-      <c r="P40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R40" s="7" t="n">
+      <c r="O40" s="9" t="inlineStr"/>
+      <c r="P40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R40" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -2975,42 +2990,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
+      <c r="I43" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -3020,17 +3035,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K43" s="5" t="inlineStr">
+      <c r="K43" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L43" s="5" t="inlineStr">
+      <c r="L43" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M43" s="5" t="inlineStr">
+      <c r="M43" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -3040,12 +3055,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O43" s="5" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P43" s="4" t="inlineStr">
+      <c r="P43" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -3055,185 +3070,185 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="R43" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="B44" s="8" t="n"/>
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="D44" s="7" t="n"/>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="inlineStr">
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H44" s="7" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="I44" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J44" s="7" t="inlineStr">
+      <c r="J44" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M44" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N44" s="7" t="n">
+      <c r="L44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N44" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="O44" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P44" s="7" t="n"/>
-      <c r="Q44" s="7" t="n"/>
-      <c r="R44" s="7" t="inlineStr">
+      <c r="O44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="8" t="n"/>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K45" s="8" t="n">
+      <c r="A45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K45" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L45" s="8" t="n">
+      <c r="L45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M45" s="8" t="n">
+      <c r="M45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="8" t="n">
+      <c r="N45" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="O45" s="8" t="inlineStr"/>
-      <c r="P45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R45" s="7" t="n">
+      <c r="O45" s="9" t="inlineStr"/>
+      <c r="P45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R45" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="inlineStr">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B46" s="7" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D46" s="7" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E46" s="7" t="n"/>
-      <c r="F46" s="7" t="n"/>
-      <c r="G46" s="7" t="inlineStr">
+      <c r="E46" s="8" t="n"/>
+      <c r="F46" s="8" t="n"/>
+      <c r="G46" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H46" s="7" t="inlineStr">
+      <c r="H46" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I46" s="7" t="inlineStr">
+      <c r="I46" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J46" s="7" t="inlineStr">
+      <c r="J46" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="K46" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="L46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N46" s="7" t="n">
+      <c r="L46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N46" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P46" s="7" t="n"/>
-      <c r="Q46" s="7" t="n"/>
-      <c r="R46" s="7" t="inlineStr">
+      <c r="O46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P46" s="8" t="n"/>
+      <c r="Q46" s="8" t="n"/>
+      <c r="R46" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3241,117 +3256,117 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n"/>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="C47" s="7" t="inlineStr">
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D47" s="7" t="inlineStr">
+      <c r="D47" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành Mentor SVCNTS 2023 được đánh giá đạt trong tháng 8</t>
         </is>
       </c>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="inlineStr">
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H47" s="7" t="inlineStr">
+      <c r="H47" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I47" s="7" t="inlineStr">
+      <c r="I47" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="J47" s="8" t="inlineStr">
         <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="K47" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="L47" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M47" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N47" s="7" t="n">
+      <c r="L47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N47" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O47" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P47" s="7" t="n"/>
-      <c r="Q47" s="7" t="n"/>
-      <c r="R47" s="7" t="inlineStr">
+      <c r="O47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P47" s="8" t="n"/>
+      <c r="Q47" s="8" t="n"/>
+      <c r="R47" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K48" s="8" t="n">
+      <c r="A48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K48" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L48" s="8" t="n">
+      <c r="L48" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="8" t="n">
+      <c r="M48" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N48" s="8" t="n">
+      <c r="N48" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="O48" s="8" t="inlineStr"/>
-      <c r="P48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R48" s="7" t="n">
+      <c r="O48" s="9" t="inlineStr"/>
+      <c r="P48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R48" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -3372,7 +3387,7 @@
     <mergeCell ref="A23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="Q5" r:id="rId1"/>
     <hyperlink ref="Q7" r:id="rId2"/>
     <hyperlink ref="Q12" r:id="rId3"/>
     <hyperlink ref="Q13" r:id="rId4"/>
